--- a/biology/Médecine/Docteur_Patch/Docteur_Patch.xlsx
+++ b/biology/Médecine/Docteur_Patch/Docteur_Patch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Docteur Patch (Patch Adams) est une comédie dramatique américaine réalisée en 1998 par Tom Shadyac. Le film est basé sur la vie du médecin Hunter « Patch » Adams et de son livre Gesundheit : Bonne santé, un remède par le rire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Docteur Patch (Patch Adams) est une comédie dramatique américaine réalisée en 1998 par Tom Shadyac. Le film est basé sur la vie du médecin Hunter « Patch » Adams et de son livre Gesundheit : Bonne santé, un remède par le rire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début des années 1970, Hunter « Patch » Adams est un étudiant en médecine surdoué mais excentrique qui, après une tentative de suicide et un séjour en hôpital psychiatrique, s'est découvert un don pour apporter du réconfort et de l'aide à ses semblables par le biais du rire. Il croit alors avec conviction en une approche révolutionnairement plus humaine et relationnelle de la médecine. Il développe avec deux collègues étudiants et amis un foyer humanitaire de soins qui aide des personnes ne trouvant pas le secours recherché auprès de la médecine. 
 Ses méthodes inhabituelles et déconcertantes dérangent les habitudes de son université et une partie de la hiérarchie qui tente à plusieurs reprises de l'exclure. Grâce à ses excellents résultats et aux nombreux soutiens obtenus (patients soulagés de l'internat, infirmières, collègues étudiants et une partie conquise de la hiérarchie), il parvient finalement à terminer avec succès ses études et à transformer son foyer de soins en une véritable clinique basée sur ces principes révolutionnaires. Cette méthode rencontre par la suite un développement et un succès croissants.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Patch Adams
 Titre français : Docteur Patch
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Robin Williams (VF : Michel Papineschi) : Dr Hunter « Patch » Adams
 Monica Potter (VF : Nathalie Spitzer) : Carin Fisher
@@ -638,7 +656,9 @@
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le film est un succès au box-office, rapportant 202 millions de dollars pour un budget de 90 millions.
 Le film est nommé pour l'Oscar de la meilleure musique originale (composée par Marc Shaiman).
